--- a/DB/数据结构.xlsx
+++ b/DB/数据结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\微信小程序\WXtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\微信小程序\WXtest\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +271,6 @@
   </si>
   <si>
     <t>Assist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用Cname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -703,7 +702,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,8 +712,8 @@
     <col min="3" max="3" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -750,8 +749,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -773,8 +772,8 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -810,8 +809,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -833,8 +832,8 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -870,8 +869,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3" s="8" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -885,7 +884,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -900,28 +899,28 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DB/数据结构.xlsx
+++ b/DB/数据结构.xlsx
@@ -277,14 +277,19 @@
     <t>SELECT Hero,sum(Assist) as IdxValue FROM ASSIST_INFO WHERE Teammate IN (友方1号英雄,友方2号英雄,友方3号英雄,友方4号英雄) GROUP BY Hero;</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT TEMP_TABLE.Hero,sum(TEMP_TABLE.IdxValue) from 
+    <t>SELECT * FROM
+(
+SELECT TEMP_TABLE.Hero,sum(TEMP_TABLE.IdxValue) from 
 (
 SELECT Hero,sum(Assist) as IdxValue FROM ASSIST_INFO WHERE Teammate IN (友方1号英雄,友方2号英雄,友方3号英雄,友方4号英雄) GROUP BY Hero
 UNION ALL
 SELECT Hero,sum(Advantage) as IdxValue FROM ANTI_INFO WHERE Enemy IN (敌方1号英雄,敌方2号英雄,敌方3号英雄,敌方4号英雄,敌方5号英雄) GROUP BY Hero
 ) AS TEMP_TABLE
 GROUP BY Hero
-</t>
+) AS SUMMARY_TABLE 
+ORDER BY 2 DESC 
+LIMIT 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -701,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>35</v>
       </c>
